--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="16620" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,12 +338,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1165,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="I4">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10000000</v>
+        <v>15000</v>
       </c>
       <c r="I5">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>10000000</v>
+        <v>15000</v>
       </c>
       <c r="I6">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J6">
         <v>0</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -76,8 +76,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：限制时间内杀死所有敌方
-1：自己和友方英雄至少有一个存活</t>
+0：杀死 boss
+1：限制时间内杀死所有敌方
+2：自己和友方英雄至少有一个存活</t>
         </r>
       </text>
     </comment>
@@ -1165,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="10845"/>
+    <workbookView windowWidth="14175" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -119,6 +119,9 @@
     <t>passType</t>
   </si>
   <si>
+    <t>passReward</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
   </si>
   <si>
     <t>通过类型</t>
+  </si>
+  <si>
+    <t>通过奖励</t>
   </si>
   <si>
     <t>纯本地战斗测试战斗流程 第 1 波</t>
@@ -1164,23 +1170,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="6" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,72 +1219,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1301,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1293,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1307,8 +1324,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1336,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1325,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1339,8 +1359,11 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1371,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1357,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1370,6 +1393,9 @@
       </c>
       <c r="J6">
         <v>0</v>
+      </c>
+      <c r="K6">
+        <v>10003</v>
       </c>
     </row>
     <row r="7" spans="3:6">

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14175" windowHeight="10845"/>
+    <workbookView windowWidth="21040" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -119,7 +106,7 @@
     <t>passType</t>
   </si>
   <si>
-    <t>passReward</t>
+    <t>passRewardId</t>
   </si>
   <si>
     <t>int</t>
@@ -185,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -345,12 +332,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1173,10 +1160,10 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1186,6 +1173,7 @@
     <col min="8" max="8" width="6.5" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1502,7 +1490,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1519,7 +1507,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21040" windowHeight="14500"/>
+    <workbookView windowWidth="19335" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -172,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1160,18 +1173,18 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
@@ -1304,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="I4">
         <v>60000</v>
@@ -1339,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="I5">
         <v>60000</v>
@@ -1374,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="I6">
         <v>60000</v>
@@ -1490,7 +1503,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1507,7 +1520,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10845"/>
+    <workbookView windowWidth="17670" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,12 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,7 @@
         <v>3000</v>
       </c>
       <c r="I4">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>3000</v>
       </c>
       <c r="I5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>3000</v>
       </c>
       <c r="I6">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J6">
         <v>0</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17670" windowHeight="10845"/>
+    <workbookView windowWidth="14100" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,7 @@
         <v>3000</v>
       </c>
       <c r="I4">
-        <v>50000</v>
+        <v>500000000</v>
       </c>
       <c r="J4">
         <v>0</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="12015"/>
+    <workbookView windowWidth="18420" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,12 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>99999999</v>
       </c>
       <c r="I4">
         <v>500000000</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18420" windowHeight="12105"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="I4">
-        <v>500000000</v>
+        <v>999999999</v>
       </c>
       <c r="J4">
         <v>0</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowWidth="16125" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>999999999</v>
       </c>
       <c r="I4">
         <v>999999999</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>准备时间（*1000）</t>
   </si>
   <si>
-    <t>限制时间（*1000）</t>
+    <t>限制时间（*1000）（战斗时间）</t>
   </si>
   <si>
     <t>通过类型</t>
@@ -345,12 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1184,7 +1184,7 @@
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
@@ -1323,7 +1323,7 @@
         <v>999999999</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>10001</v>
@@ -1358,7 +1358,7 @@
         <v>50000</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>10002</v>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16455" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>1004</t>
+  </si>
+  <si>
+    <t>纯本地战斗测试战斗流程 第 4 波</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>纯本地战斗测试战斗流程 第 5 波</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
 </sst>
 </file>
@@ -1173,13 +1185,13 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
@@ -1320,7 +1332,7 @@
         <v>999999999</v>
       </c>
       <c r="I4">
-        <v>999999999</v>
+        <v>999999</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1352,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>999999999</v>
       </c>
       <c r="I5">
-        <v>50000</v>
+        <v>999999</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1384,29 +1396,90 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3000</v>
+        <v>999999999</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>999999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>10003</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>999999999</v>
+      </c>
+      <c r="I7">
+        <v>999999</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>999999999</v>
+      </c>
+      <c r="I8">
+        <v>999999</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>10003</v>
+      </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1"/>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="11430"/>
+    <workbookView windowWidth="16260" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -116,6 +116,9 @@
     <t>limitTime</t>
   </si>
   <si>
+    <t>readyRewardId</t>
+  </si>
+  <si>
     <t>passType</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
   </si>
   <si>
     <t>限制时间（*1000）（战斗时间）</t>
+  </si>
+  <si>
+    <t>准备阶段获得的奖励</t>
   </si>
   <si>
     <t>通过类型</t>
@@ -1182,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1196,12 +1202,13 @@
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,78 +1242,87 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1330,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1323,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1335,13 +1351,16 @@
         <v>999999</v>
       </c>
       <c r="J4">
+        <v>100001</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1368,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1358,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1370,13 +1389,16 @@
         <v>999999</v>
       </c>
       <c r="J5">
+        <v>100002</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>100102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1393,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1405,13 +1427,16 @@
         <v>999999</v>
       </c>
       <c r="J6">
+        <v>100003</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>100103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1444,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1428,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1440,13 +1465,16 @@
         <v>999999</v>
       </c>
       <c r="J7">
+        <v>100004</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1482,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1463,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1475,10 +1503,13 @@
         <v>999999</v>
       </c>
       <c r="J8">
+        <v>100005</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>10003</v>
+      <c r="L8">
+        <v>100105</v>
       </c>
     </row>
     <row r="9" spans="3:6">

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11700"/>
+    <workbookView windowWidth="25600" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -58,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -116,6 +103,9 @@
     <t>limitTime</t>
   </si>
   <si>
+    <t>readyAddPopulationCount</t>
+  </si>
+  <si>
     <t>readyRewardId</t>
   </si>
   <si>
@@ -159,6 +149,9 @@
   </si>
   <si>
     <t>限制时间（*1000）（战斗时间）</t>
+  </si>
+  <si>
+    <t>准备阶段获得的人口数</t>
   </si>
   <si>
     <t>准备阶段获得的奖励</t>
@@ -203,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -363,12 +356,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1188,13 +1181,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
@@ -1203,12 +1196,13 @@
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="29.6442307692308" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,84 +1239,93 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1339,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1351,16 +1354,19 @@
         <v>999999</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>100001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>100101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1377,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1389,16 +1395,19 @@
         <v>999999</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>100002</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>100102</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1415,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1415,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1427,16 +1436,19 @@
         <v>999999</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>100003</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>100103</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1453,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1465,16 +1477,19 @@
         <v>999999</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>100004</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>100104</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1491,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1503,12 +1518,15 @@
         <v>999999</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>100005</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>100105</v>
       </c>
     </row>
@@ -1607,7 +1625,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1624,7 +1642,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12500"/>
+    <workbookView windowWidth="24900" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -163,34 +163,124 @@
     <t>通过奖励</t>
   </si>
   <si>
-    <t>纯本地战斗测试战斗流程 第 1 波</t>
-  </si>
-  <si>
-    <t>1000,1001</t>
-  </si>
-  <si>
-    <t>纯本地战斗测试战斗流程 第 2 波</t>
-  </si>
-  <si>
-    <t>1002,1003</t>
-  </si>
-  <si>
-    <t>纯本地战斗测试战斗流程 第 3 波</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>纯本地战斗测试战斗流程 第 4 波</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>纯本地战斗测试战斗流程 第 5 波</t>
-  </si>
-  <si>
-    <t>1006</t>
+    <t>第 1 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>第 2 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>第 3 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1003,1203</t>
+  </si>
+  <si>
+    <t>第 4 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1004,1204</t>
+  </si>
+  <si>
+    <t>第 5 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1005,1205</t>
+  </si>
+  <si>
+    <t>第 6 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1006,1206</t>
+  </si>
+  <si>
+    <t>第 7 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1007,1207</t>
+  </si>
+  <si>
+    <t>第 8 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1008,1208</t>
+  </si>
+  <si>
+    <t>第 9 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1009,1209</t>
+  </si>
+  <si>
+    <t>第 10 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1010,1210</t>
+  </si>
+  <si>
+    <t>第 11 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1011,1211</t>
+  </si>
+  <si>
+    <t>第 12 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1012,1212</t>
+  </si>
+  <si>
+    <t>第 13 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1013,1213</t>
+  </si>
+  <si>
+    <t>第 14 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1014,1214</t>
+  </si>
+  <si>
+    <t>第 15 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1015,1215</t>
+  </si>
+  <si>
+    <t>第 16 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1016,1216</t>
+  </si>
+  <si>
+    <t>第 17 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1017,1217</t>
+  </si>
+  <si>
+    <t>第 18 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1018,1218</t>
+  </si>
+  <si>
+    <t>第 19 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1019,1219</t>
+  </si>
+  <si>
+    <t>第 20 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>1020,1220,1320</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1193,7 +1283,7 @@
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="15.8653846153846" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="29.6442307692308" customWidth="1"/>
@@ -1330,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1351,7 +1441,7 @@
         <v>999999999</v>
       </c>
       <c r="I4">
-        <v>999999</v>
+        <v>60000</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1371,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1392,7 +1482,7 @@
         <v>999999999</v>
       </c>
       <c r="I5">
-        <v>999999</v>
+        <v>62000</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1412,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1433,7 +1523,7 @@
         <v>999999999</v>
       </c>
       <c r="I6">
-        <v>999999</v>
+        <v>64000</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1453,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1474,7 +1564,7 @@
         <v>999999999</v>
       </c>
       <c r="I7">
-        <v>999999</v>
+        <v>66000</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1494,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -1509,13 +1599,13 @@
         <v>38</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>999999999</v>
       </c>
       <c r="I8">
-        <v>999999</v>
+        <v>68000</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1530,71 +1620,620 @@
         <v>100105</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>999999999</v>
+      </c>
+      <c r="I9">
+        <v>70000</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100006</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>100106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>999999999</v>
+      </c>
+      <c r="I10">
+        <v>72000</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>100007</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>100107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>999999999</v>
+      </c>
+      <c r="I11">
+        <v>74000</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>100008</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>100108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>999999999</v>
+      </c>
+      <c r="I12">
+        <v>76000</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>100009</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>100109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>999999999</v>
+      </c>
+      <c r="I13">
+        <v>78000</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>100010</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>100110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>999999999</v>
+      </c>
+      <c r="I14">
+        <v>80000</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100011</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>100111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>999999999</v>
+      </c>
+      <c r="I15">
+        <v>85000</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>100012</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>100112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>999999999</v>
+      </c>
+      <c r="I16">
+        <v>90000</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100013</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>100113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>999999999</v>
+      </c>
+      <c r="I17">
+        <v>95000</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>100014</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>100114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>999999999</v>
+      </c>
+      <c r="I18">
+        <v>100000</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>100015</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>100115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>999999999</v>
+      </c>
+      <c r="I19">
+        <v>105000</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>100016</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>100116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>999999999</v>
+      </c>
+      <c r="I20">
+        <v>110000</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>100017</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>999999999</v>
+      </c>
+      <c r="I21">
+        <v>115000</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>100018</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>100118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>999999999</v>
+      </c>
+      <c r="I22">
+        <v>120000</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>100019</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>100119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>999999999</v>
+      </c>
+      <c r="I23">
+        <v>180000</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>100020</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>100120</v>
+      </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="1"/>

--- a/data_config/BattleProcessWave.xlsx
+++ b/data_config/BattleProcessWave.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24900" windowHeight="15780"/>
+    <workbookView windowWidth="16035" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -286,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -446,12 +459,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1273,20 +1286,20 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="15.8653846153846" customWidth="1"/>
+    <col min="6" max="6" width="15.8666666666667" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="29.6442307692308" customWidth="1"/>
+    <col min="10" max="10" width="29.6416666666667" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="16.5" customWidth="1"/>
@@ -1526,7 +1539,7 @@
         <v>64000</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>100003</v>
@@ -1608,7 +1621,7 @@
         <v>68000</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>100005</v>
@@ -1649,7 +1662,7 @@
         <v>70000</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>100006</v>
@@ -1690,7 +1703,7 @@
         <v>72000</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>100007</v>
@@ -1772,7 +1785,7 @@
         <v>76000</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>100009</v>
@@ -1813,7 +1826,7 @@
         <v>78000</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>100010</v>
@@ -1854,7 +1867,7 @@
         <v>80000</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>100011</v>
@@ -1895,7 +1908,7 @@
         <v>85000</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>100012</v>
@@ -1936,7 +1949,7 @@
         <v>90000</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>100013</v>
@@ -2018,7 +2031,7 @@
         <v>100000</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>100015</v>
@@ -2059,7 +2072,7 @@
         <v>105000</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>100016</v>
@@ -2100,7 +2113,7 @@
         <v>110000</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>100017</v>
@@ -2141,7 +2154,7 @@
         <v>115000</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>100018</v>
@@ -2182,7 +2195,7 @@
         <v>120000</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>100019</v>
@@ -2223,7 +2236,7 @@
         <v>180000</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>100020</v>
@@ -2264,7 +2277,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2281,7 +2294,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
